--- a/va_facility_data_2025-02-20/Omaha VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Omaha%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Omaha VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Omaha%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rcaf864dcd4234d879d37dcd90d1c0395"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R34dbedacefed47c293c484dc32877570"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rcd61a7ac2b2e4e8fbb121507ee293f29"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R6ab1bdfb34974620aef7a22d1f947e81"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ra8aa4412c58044aabe611a6de47f1352"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R597af0623869479da1ed6643f251ee1f"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R825be09a2db34b6c9eb0aa4ff97f432d"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R59680a344e664c78a7f91b18e60071db"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R836b0208792c43cb9ad708355807631c"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rf567443acd364a728d7c6f387c625356"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ra6a452524b1a47e19074eb17abeb5392"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R2421d314de37455282fcfa3af50096a1"/>
   </x:sheets>
 </x:workbook>
 </file>
